--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,114 +46,123 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>apart</t>
+    <t>thought</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -175,13 +184,10 @@
     <t>loves</t>
   </si>
   <si>
-    <t>best</t>
+    <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
   </si>
   <si>
     <t>friends</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,16 +650,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>0.8</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>0.7857142857142857</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -723,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.734375</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.7204301075268817</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M5">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,16 +800,16 @@
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>0.6226415094339622</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7311827956989247</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.515625</v>
+        <v>0.53125</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6959459459459459</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.4492753623188406</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6941747572815534</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C9">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.3795081967213115</v>
+        <v>0.3713114754098361</v>
       </c>
       <c r="L9">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="M9">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>757</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6458333333333334</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,16 +997,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.3256814921090387</v>
+        <v>0.3247126436781609</v>
       </c>
       <c r="L10">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M10">
         <v>227</v>
@@ -1012,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>470</v>
@@ -1023,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5636363636363636</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.2966804979253112</v>
+        <v>0.3029045643153527</v>
       </c>
       <c r="L11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5462184873949579</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C12">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.2583333333333334</v>
+        <v>0.2171253822629969</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5304347826086957</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C13">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D13">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.2349397590361446</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5180722891566265</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C14">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.1926605504587156</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="L14">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>264</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4488188976377953</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C15">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.164021164021164</v>
+        <v>0.1285140562248996</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>158</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4157303370786517</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.1164658634538153</v>
+        <v>0.1156879929886065</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>220</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,31 +1347,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>0.1086765994741455</v>
+        <v>0.04808317089018843</v>
       </c>
       <c r="L17">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>1017</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1379,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.359375</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,31 +1397,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>82</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18">
-        <v>0.06943543153796236</v>
-      </c>
-      <c r="L18">
-        <v>107</v>
-      </c>
-      <c r="M18">
-        <v>107</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1434</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,13 +1405,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3465346534653465</v>
+        <v>0.3762376237623762</v>
       </c>
       <c r="C19">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D19">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1441,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1449,13 +1431,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3270142180094787</v>
+        <v>0.375</v>
       </c>
       <c r="C20">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D20">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1467,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>142</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1475,13 +1457,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2564102564102564</v>
+        <v>0.3317535545023697</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1493,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>87</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1501,13 +1483,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2371134020618557</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1519,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>148</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1527,13 +1509,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2225519287833828</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C23">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1545,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>524</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1553,13 +1535,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2065217391304348</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C24">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1571,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>219</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1579,13 +1561,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2056962025316456</v>
+        <v>0.2240356083086053</v>
       </c>
       <c r="C25">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1597,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>251</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1605,13 +1587,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2</v>
+        <v>0.2183544303797468</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1623,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>160</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1631,13 +1613,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1962025316455696</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C27">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1649,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1657,25 +1639,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1873198847262248</v>
+        <v>0.215</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E28">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>282</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1683,13 +1665,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1869158878504673</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1701,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>174</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1709,13 +1691,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1657142857142857</v>
+        <v>0.1974522292993631</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1727,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1735,13 +1717,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1541850220264317</v>
+        <v>0.1872246696035242</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D31">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1753,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1761,13 +1743,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1397260273972603</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="C32">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1779,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>314</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1787,13 +1769,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.125</v>
+        <v>0.1385767790262172</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1805,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1813,13 +1795,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.09703947368421052</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C34">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1831,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>549</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1839,13 +1821,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0779510022271715</v>
+        <v>0.1350574712643678</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1857,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>414</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1865,25 +1847,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.07242990654205607</v>
+        <v>0.1041095890410959</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D36">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>397</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1891,25 +1873,103 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.03807106598984772</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="F37">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>758</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.07366071428571429</v>
+      </c>
+      <c r="C38">
+        <v>33</v>
+      </c>
+      <c r="D38">
+        <v>34</v>
+      </c>
+      <c r="E38">
+        <v>0.03</v>
+      </c>
+      <c r="F38">
+        <v>0.97</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.06930693069306931</v>
+      </c>
+      <c r="C39">
+        <v>42</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>0.05</v>
+      </c>
+      <c r="F39">
+        <v>0.95</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.04441624365482234</v>
+      </c>
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <v>41</v>
+      </c>
+      <c r="E40">
+        <v>0.15</v>
+      </c>
+      <c r="F40">
+        <v>0.85</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
